--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Dkk2-Lrp5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Dkk2-Lrp5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
   </si>
   <si>
     <t>Lrp5</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>8.398553333333334</v>
+        <v>0.1293116666666667</v>
       </c>
       <c r="H2">
-        <v>25.19566</v>
+        <v>0.387935</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.0151634279701504</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.0151634279701504</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.215523666666667</v>
+        <v>15.01856033333333</v>
       </c>
       <c r="N2">
-        <v>18.646571</v>
+        <v>45.055681</v>
       </c>
       <c r="O2">
-        <v>0.2852115546146347</v>
+        <v>0.4908713633047416</v>
       </c>
       <c r="P2">
-        <v>0.2852115546146348</v>
+        <v>0.4908713633047417</v>
       </c>
       <c r="Q2">
-        <v>52.20140700909556</v>
+        <v>1.942075067637222</v>
       </c>
       <c r="R2">
-        <v>469.81266308186</v>
+        <v>17.478675608735</v>
       </c>
       <c r="S2">
-        <v>0.2852115546146347</v>
+        <v>0.007443292560080979</v>
       </c>
       <c r="T2">
-        <v>0.2852115546146348</v>
+        <v>0.007443292560080981</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>8.398553333333334</v>
+        <v>0.1293116666666667</v>
       </c>
       <c r="H3">
-        <v>25.19566</v>
+        <v>0.387935</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.0151634279701504</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.0151634279701504</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>28.452212</v>
       </c>
       <c r="O3">
-        <v>0.4351952762116512</v>
+        <v>0.3099803572711625</v>
       </c>
       <c r="P3">
-        <v>0.4351952762116512</v>
+        <v>0.3099803572711625</v>
       </c>
       <c r="Q3">
-        <v>79.65247331110223</v>
+        <v>1.226400984691111</v>
       </c>
       <c r="R3">
-        <v>716.87225979992</v>
+        <v>11.03760886222</v>
       </c>
       <c r="S3">
-        <v>0.4351952762116512</v>
+        <v>0.004700364819642759</v>
       </c>
       <c r="T3">
-        <v>0.4351952762116512</v>
+        <v>0.00470036481964276</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>8.398553333333334</v>
+        <v>0.1293116666666667</v>
       </c>
       <c r="H4">
-        <v>25.19566</v>
+        <v>0.387935</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.0151634279701504</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.0151634279701504</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,208 @@
         <v>18.279252</v>
       </c>
       <c r="O4">
-        <v>0.2795931691737141</v>
+        <v>0.1991482794240958</v>
       </c>
       <c r="P4">
-        <v>0.2795931691737141</v>
+        <v>0.1991482794240958</v>
       </c>
       <c r="Q4">
+        <v>0.7879068471799999</v>
+      </c>
+      <c r="R4">
+        <v>7.09116162462</v>
+      </c>
+      <c r="S4">
+        <v>0.003019770590426662</v>
+      </c>
+      <c r="T4">
+        <v>0.003019770590426663</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>8.398553333333334</v>
+      </c>
+      <c r="H5">
+        <v>25.19566</v>
+      </c>
+      <c r="I5">
+        <v>0.9848365720298496</v>
+      </c>
+      <c r="J5">
+        <v>0.9848365720298496</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>15.01856033333333</v>
+      </c>
+      <c r="N5">
+        <v>45.055681</v>
+      </c>
+      <c r="O5">
+        <v>0.4908713633047416</v>
+      </c>
+      <c r="P5">
+        <v>0.4908713633047417</v>
+      </c>
+      <c r="Q5">
+        <v>126.1341799493845</v>
+      </c>
+      <c r="R5">
+        <v>1135.20761954446</v>
+      </c>
+      <c r="S5">
+        <v>0.4834280707446607</v>
+      </c>
+      <c r="T5">
+        <v>0.4834280707446607</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>8.398553333333334</v>
+      </c>
+      <c r="H6">
+        <v>25.19566</v>
+      </c>
+      <c r="I6">
+        <v>0.9848365720298496</v>
+      </c>
+      <c r="J6">
+        <v>0.9848365720298496</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>9.484070666666666</v>
+      </c>
+      <c r="N6">
+        <v>28.452212</v>
+      </c>
+      <c r="O6">
+        <v>0.3099803572711625</v>
+      </c>
+      <c r="P6">
+        <v>0.3099803572711625</v>
+      </c>
+      <c r="Q6">
+        <v>79.65247331110223</v>
+      </c>
+      <c r="R6">
+        <v>716.87225979992</v>
+      </c>
+      <c r="S6">
+        <v>0.3052799924515197</v>
+      </c>
+      <c r="T6">
+        <v>0.3052799924515198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>8.398553333333334</v>
+      </c>
+      <c r="H7">
+        <v>25.19566</v>
+      </c>
+      <c r="I7">
+        <v>0.9848365720298496</v>
+      </c>
+      <c r="J7">
+        <v>0.9848365720298496</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>6.093084</v>
+      </c>
+      <c r="N7">
+        <v>18.279252</v>
+      </c>
+      <c r="O7">
+        <v>0.1991482794240958</v>
+      </c>
+      <c r="P7">
+        <v>0.1991482794240958</v>
+      </c>
+      <c r="Q7">
         <v>51.17309093848001</v>
       </c>
-      <c r="R4">
+      <c r="R7">
         <v>460.55781844632</v>
       </c>
-      <c r="S4">
-        <v>0.2795931691737141</v>
-      </c>
-      <c r="T4">
-        <v>0.2795931691737141</v>
+      <c r="S7">
+        <v>0.1961285088336692</v>
+      </c>
+      <c r="T7">
+        <v>0.1961285088336692</v>
       </c>
     </row>
   </sheetData>
